--- a/Resources/CourseData.xlsx
+++ b/Resources/CourseData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B01F93E5-F117-4AE4-8696-1D4C4297346D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1984F252-A28E-43D7-8ADB-8F8266B13D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Field</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>courseName2</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,6 +626,14 @@
       </c>
       <c r="B14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
